--- a/FinalPaper/0_data_preprocessing/2_output/data_dict.xlsx
+++ b/FinalPaper/0_data_preprocessing/2_output/data_dict.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\D\Documents\Academics\1_Spring2019\ResearchDataManagement\THA\DMRL_THA\FinalPaper\0_data_preprocessing\2_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B964CE5E-1533-4EB1-A565-6A1A8E227673}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEE1ED5-6F56-48BB-BE93-5709BD816197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="repo_p" sheetId="1" r:id="rId1"/>
@@ -65,18 +65,12 @@
     <t>float</t>
   </si>
   <si>
-    <t>the amount of years since the OA repository was established</t>
-  </si>
-  <si>
     <t>Calculated by the year_established in Directory of Open Access Repositories (DOAR)</t>
   </si>
   <si>
     <t>policy_year</t>
   </si>
   <si>
-    <t>the amount of years since the institution's open access policy became effective</t>
-  </si>
-  <si>
     <t>Calculated by the policy_effective in The registry of Open Access Repositories Mandates and Policies (ROARMAP)</t>
   </si>
   <si>
@@ -84,12 +78,18 @@
   </si>
   <si>
     <t>Ranking Universities by cybermetrics Lab, Spanish National Research Council</t>
+  </si>
+  <si>
+    <t>the number of years since the OA repository was established</t>
+  </si>
+  <si>
+    <t>the number of years since the institution's open access policy became effective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -923,11 +923,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -982,24 +982,24 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1008,11 +1008,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1042,7 +1042,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -1056,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1067,24 +1067,24 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
